--- a/biology/Zoologie/Ardea_bennuides/Ardea_bennuides.xlsx
+++ b/biology/Zoologie/Ardea_bennuides/Ardea_bennuides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardea bennuides est une espèce d'oiseaux éteinte de la famille des Ardéidés qui habitait les actuels Émirats arabes unis. On pense que ce héron a inspiré le Bénou de la mythologie égyptienne, d'où son nom scientifique.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardea bennuides n'est connu que pour un fragment de tibiotarse trouvé sur le site archéologique d'Umm al-Nar dans le golfe Persique (Emirats Arabes Unis) et formellement décrit par la géologue danoise Ella Hoch. Les restes datent de 3500 av. c. (il y a environ 5500 ans). Hoch ne donne qu'une brève description, sans parler de la taille de l'os ni de l'endroit exact où il a été trouvé, mais il ne peut pas être considéré comme un nomen nudum, puisqu'une photo de l'os a été publiée.
 Ardea bennuides était plus grand que Ardea goliath, le plus grand héron vivant.
